--- a/outcome/appendix/data/forecast/Brucellosis.xlsx
+++ b/outcome/appendix/data/forecast/Brucellosis.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">upper_95</t>
   </si>
   <si>
-    <t xml:space="preserve">disease_1</t>
+    <t xml:space="preserve">disease_en</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">color</t>
   </si>
   <si>
-    <t xml:space="preserve">布病</t>
+    <t xml:space="preserve">Brucellosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
   </si>
   <si>
     <t xml:space="preserve">Increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decrease</t>
   </si>
 </sst>
 </file>
@@ -427,12 +427,20 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2418.99125142778</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
+        <v>2617.05332564868</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1918.56224363972</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1583.39567059336</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3305.946612685</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3690.8335521021</v>
+      </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
@@ -440,7 +448,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>-26.0087485722161</v>
+        <v>172.053325648676</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -451,12 +459,20 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2862.90723573949</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+        <v>2785.49396481887</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1901.40048941763</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1557.43023559512</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3669.93759647157</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4211.53732308981</v>
+      </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
@@ -464,10 +480,10 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1929.90723573949</v>
+        <v>1852.49396481887</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -475,12 +491,20 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3527.67512127392</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
+        <v>4466.24117152829</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3478.24896558611</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3014.07693707039</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5450.73333466691</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6070.44908599805</v>
+      </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
@@ -488,10 +512,10 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>19.6751212739241</v>
+        <v>958.24117152829</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -499,12 +523,20 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>4503.69404998936</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
+        <v>5550.31358884277</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4396.15519323052</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3807.62177973789</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6731.24860798319</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7281.19675062732</v>
+      </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
@@ -512,7 +544,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-856.305950010643</v>
+        <v>190.31358884277</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -523,12 +555,20 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>4726.2701252003</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
+        <v>6350.76055968256</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5159.80426300304</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4607.13746097261</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7565.63771284994</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8019.17357058821</v>
+      </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
@@ -536,7 +576,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>-537.729874799696</v>
+        <v>1086.76055968256</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -547,12 +587,20 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>4989.06382420317</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
+        <v>6581.41292991702</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5318.26543561858</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4694.37916732581</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7859.51513110879</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8426.34251253361</v>
+      </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
@@ -560,7 +608,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>-1203.93617579683</v>
+        <v>388.412929917018</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -571,12 +619,20 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5059.11229831967</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
+        <v>6347.03955496371</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4998.76519227348</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4265.06820302518</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7672.37591391538</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8504.22241813238</v>
+      </c>
       <c r="G8" t="s">
         <v>10</v>
       </c>
@@ -584,10 +640,10 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>87.1122983196738</v>
+        <v>1375.03955496371</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -595,20 +651,28 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>4628.81571321242</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
+        <v>5322.37801860428</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3919.04210369935</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2898.16603955049</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6669.31598277175</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7451.37882152369</v>
+      </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>6437</v>
+        <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>-1808.18428678758</v>
+        <v>350.378018604278</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -619,12 +683,20 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3695.69632289395</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
+        <v>3863.49533183562</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2443.13408659114</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1607.56466720216</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5190.73027545689</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5993.10145506518</v>
+      </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
@@ -632,10 +704,10 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-796.303677106054</v>
+        <v>-628.504668164378</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -643,12 +715,20 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2475.2967574</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
+        <v>2926.36945321658</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1319.77807117058</v>
+      </c>
+      <c r="D11" t="n">
+        <v>488.53341778933</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4452.72534485022</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5161.80966000174</v>
+      </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
@@ -656,10 +736,10 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-730.703242600004</v>
+        <v>-279.630546783415</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -667,12 +747,20 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2322.19081754197</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
+        <v>3236.88606748491</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1734.42347335647</v>
+      </c>
+      <c r="D12" t="n">
+        <v>810.854767037513</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4890.59567823137</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5678.40576688094</v>
+      </c>
       <c r="G12" t="s">
         <v>10</v>
       </c>
@@ -680,10 +768,10 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-1288.80918245803</v>
+        <v>-374.113932515085</v>
       </c>
       <c r="J12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -691,12 +779,20 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2510.53156205183</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
+        <v>3239.99128120729</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1519.47061332193</v>
+      </c>
+      <c r="D13" t="n">
+        <v>695.13732842805</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4825.67116279708</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5928.61038494909</v>
+      </c>
       <c r="G13" t="s">
         <v>10</v>
       </c>
@@ -704,10 +800,10 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-1183.46843794817</v>
+        <v>-454.008718792709</v>
       </c>
       <c r="J13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -715,12 +811,20 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2221.33643396242</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
+        <v>2766.30421171642</v>
+      </c>
+      <c r="C14" t="n">
+        <v>914.140841161235</v>
+      </c>
+      <c r="D14" t="n">
+        <v>18.3264789915507</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4321.5868519699</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5345.02208496474</v>
+      </c>
       <c r="G14" t="s">
         <v>10</v>
       </c>
@@ -728,10 +832,10 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-953.663566037582</v>
+        <v>-408.695788283579</v>
       </c>
       <c r="J14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -739,12 +843,20 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2460.60643463373</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
+        <v>3031.67325517078</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1254.69641529393</v>
+      </c>
+      <c r="D15" t="n">
+        <v>249.739661203505</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4830.28451148521</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5801.43402002503</v>
+      </c>
       <c r="G15" t="s">
         <v>10</v>
       </c>
@@ -752,10 +864,10 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-964.393565366271</v>
+        <v>-393.326744829216</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -763,12 +875,20 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>2827.37410722383</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
+        <v>4700.32669124057</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2752.94618988444</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1831.98222317202</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6435.924798322</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7821.33635247711</v>
+      </c>
       <c r="G16" t="s">
         <v>10</v>
       </c>
@@ -776,10 +896,10 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-4392.62589277616</v>
+        <v>-2519.67330875943</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -787,12 +907,20 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>3909.45067510523</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
+        <v>5692.29292022027</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3860.30672443449</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2587.36186157178</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7296.312645126</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8757.19095689373</v>
+      </c>
       <c r="G17" t="s">
         <v>10</v>
       </c>
@@ -800,10 +928,10 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-3938.54932489477</v>
+        <v>-2155.70707977973</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -811,12 +939,20 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>4394.47031788697</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
+        <v>6494.87912287959</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4513.27294802984</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3728.33069647826</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8238.21596654754</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9356.5836704254</v>
+      </c>
       <c r="G18" t="s">
         <v>10</v>
       </c>
@@ -824,10 +960,10 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-3701.52968211303</v>
+        <v>-1601.12087712041</v>
       </c>
       <c r="J18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -835,12 +971,20 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>4717.90657861308</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
+        <v>6690.57078712005</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4621.3109023357</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3471.41075436547</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8570.90978164455</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9569.94556017685</v>
+      </c>
       <c r="G19" t="s">
         <v>10</v>
       </c>
@@ -848,10 +992,10 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-4952.09342138692</v>
+        <v>-2979.42921287995</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -859,12 +1003,20 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>4868.2640860417</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
+        <v>6474.18141400628</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4344.56667875114</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3177.38324825548</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8408.43096303438</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9533.06409974522</v>
+      </c>
       <c r="G20" t="s">
         <v>10</v>
       </c>
@@ -872,10 +1024,10 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-4353.7359139583</v>
+        <v>-2747.81858599372</v>
       </c>
       <c r="J20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -883,12 +1035,20 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>4341.50752589786</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
+        <v>5539.75537660915</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3575.07355816108</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2206.10788220824</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7532.80507656682</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8763.27137851564</v>
+      </c>
       <c r="G21" t="s">
         <v>10</v>
       </c>
@@ -896,10 +1056,10 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-2525.49247410214</v>
+        <v>-1327.24462339085</v>
       </c>
       <c r="J21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -907,12 +1067,20 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3671.30899201097</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
+        <v>3942.3544630424</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1968.75200093949</v>
+      </c>
+      <c r="D22" t="n">
+        <v>792.572397447689</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5889.95871361593</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6915.0433436599</v>
+      </c>
       <c r="G22" t="s">
         <v>10</v>
       </c>
@@ -920,10 +1088,10 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-2260.69100798903</v>
+        <v>-1989.6455369576</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -931,12 +1099,20 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2407.02464456873</v>
-      </c>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
+        <v>3044.56756396755</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1024.98356277029</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-58.1900859385882</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5126.12057953225</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6218.19771647489</v>
+      </c>
       <c r="G23" t="s">
         <v>10</v>
       </c>
@@ -944,10 +1120,10 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-1214.97535543127</v>
+        <v>-577.432436032453</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -955,12 +1131,20 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1980.16494470951</v>
-      </c>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
+        <v>3308.7334746162</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1154.95839351427</v>
+      </c>
+      <c r="D24" t="n">
+        <v>87.6993925876346</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5453.41582934552</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6878.21048867337</v>
+      </c>
       <c r="G24" t="s">
         <v>10</v>
       </c>
@@ -968,10 +1152,10 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-1668.83505529049</v>
+        <v>-340.266525383798</v>
       </c>
       <c r="J24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -979,12 +1163,20 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2163.38253972374</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
+        <v>3458.48718480823</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1227.67604598083</v>
+      </c>
+      <c r="D25" t="n">
+        <v>144.867399040929</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5681.50081366769</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7274.82207576445</v>
+      </c>
       <c r="G25" t="s">
         <v>10</v>
       </c>
@@ -992,10 +1184,10 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-2755.61746027626</v>
+        <v>-1460.51281519177</v>
       </c>
       <c r="J25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1003,12 +1195,20 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1960.19873255227</v>
-      </c>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
+        <v>2986.24087328007</v>
+      </c>
+      <c r="C26" t="n">
+        <v>594.821372159772</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-453.254670458066</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5232.40108205163</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6721.05222520938</v>
+      </c>
       <c r="G26" t="s">
         <v>10</v>
       </c>
@@ -1016,10 +1216,10 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-2435.80126744773</v>
+        <v>-1409.75912671993</v>
       </c>
       <c r="J26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1027,12 +1227,20 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2099.4295970733</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
+        <v>3110.62250846159</v>
+      </c>
+      <c r="C27" t="n">
+        <v>725.924363347274</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-475.703255574535</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5518.38033494897</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7104.91345549916</v>
+      </c>
       <c r="G27" t="s">
         <v>10</v>
       </c>
@@ -1040,10 +1248,10 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-2589.5704029267</v>
+        <v>-1578.37749153841</v>
       </c>
       <c r="J27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1051,12 +1259,20 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>2402.27535259857</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
+        <v>4798.53564733087</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2345.93344402158</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1266.76404493838</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7300.90315856598</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8393.4428454034</v>
+      </c>
       <c r="G28" t="s">
         <v>10</v>
       </c>
@@ -1064,10 +1280,10 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-4253.72464740143</v>
+        <v>-1857.46435266913</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1075,12 +1291,20 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3517.44444107446</v>
-      </c>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
+        <v>5877.90402296665</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3197.20459939547</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1926.45907417071</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8345.43206975943</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9915.60142859588</v>
+      </c>
       <c r="G29" t="s">
         <v>10</v>
       </c>
@@ -1088,10 +1312,10 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-3606.55555892554</v>
+        <v>-1246.09597703335</v>
       </c>
       <c r="J29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -1099,12 +1323,20 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>4307.46921656867</v>
-      </c>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
+        <v>6691.93941020049</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4089.16992293242</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2888.42686780282</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9192.62987333158</v>
+      </c>
+      <c r="F30" t="n">
+        <v>10883.5651959758</v>
+      </c>
       <c r="G30" t="s">
         <v>10</v>
       </c>
@@ -1112,10 +1344,10 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-4516.53078343133</v>
+        <v>-2132.06058979951</v>
       </c>
       <c r="J30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1123,12 +1355,20 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>4786.28015276022</v>
-      </c>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
+        <v>6905.55360524303</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4147.69940299787</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2985.71549272728</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9341.98574186911</v>
+      </c>
+      <c r="F31" t="n">
+        <v>11015.048201277</v>
+      </c>
       <c r="G31" t="s">
         <v>10</v>
       </c>
@@ -1136,10 +1376,10 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-5156.71984723978</v>
+        <v>-3037.44639475697</v>
       </c>
       <c r="J31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1147,12 +1387,20 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>5055.39827400309</v>
-      </c>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
+        <v>6608.43542287409</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4015.43872990517</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2563.97164476228</v>
+      </c>
+      <c r="E32" t="n">
+        <v>9205.49678421601</v>
+      </c>
+      <c r="F32" t="n">
+        <v>10605.7848512104</v>
+      </c>
       <c r="G32" t="s">
         <v>10</v>
       </c>
@@ -1160,10 +1408,10 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-4627.60172599691</v>
+        <v>-3074.56457712591</v>
       </c>
       <c r="J32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1171,12 +1419,20 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>4574.17460435804</v>
-      </c>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
+        <v>5644.97803215735</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2775.62417360704</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1600.2687421971</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8194.5369512029</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9748.60547468095</v>
+      </c>
       <c r="G33" t="s">
         <v>10</v>
       </c>
@@ -1184,10 +1440,10 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-3312.82539564196</v>
+        <v>-2242.02196784265</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1195,12 +1451,20 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>3797.3862916379</v>
-      </c>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
+        <v>4084.30747022552</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1299.28394290213</v>
+      </c>
+      <c r="D34" t="n">
+        <v>38.9135191335272</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6747.65564460104</v>
+      </c>
+      <c r="F34" t="n">
+        <v>8215.07732704811</v>
+      </c>
       <c r="G34" t="s">
         <v>10</v>
       </c>
@@ -1208,10 +1472,10 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-1513.6137083621</v>
+        <v>-1226.69252977448</v>
       </c>
       <c r="J34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1219,12 +1483,20 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>2542.71474033916</v>
-      </c>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
+        <v>3166.71376357902</v>
+      </c>
+      <c r="C35" t="n">
+        <v>167.888680432916</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-1540.90973153709</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5954.65503673947</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7347.39351324395</v>
+      </c>
       <c r="G35" t="s">
         <v>10</v>
       </c>
@@ -1232,10 +1504,10 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>7.71474033915774</v>
+        <v>631.713763579025</v>
       </c>
       <c r="J35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1243,12 +1515,20 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1876.35384329187</v>
-      </c>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
+        <v>3458.67696437311</v>
+      </c>
+      <c r="C36" t="n">
+        <v>489.620463001207</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-657.94173289693</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6347.22980680331</v>
+      </c>
+      <c r="F36" t="n">
+        <v>8095.14780675597</v>
+      </c>
       <c r="G36" t="s">
         <v>10</v>
       </c>
@@ -1256,7 +1536,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>-692.646156708133</v>
+        <v>889.676964373109</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1267,12 +1547,20 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2054.3873238736</v>
-      </c>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
+        <v>3563.65201516828</v>
+      </c>
+      <c r="C37" t="n">
+        <v>681.860086723252</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-731.534438621667</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6673.82294386245</v>
+      </c>
+      <c r="F37" t="n">
+        <v>7819.8563463737</v>
+      </c>
       <c r="G37" t="s">
         <v>10</v>
       </c>
@@ -1280,10 +1568,10 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>234.387323873595</v>
+        <v>1743.65201516828</v>
       </c>
       <c r="J37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -1291,12 +1579,20 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>1908.18680539675</v>
-      </c>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
+        <v>3078.70985996691</v>
+      </c>
+      <c r="C38" t="n">
+        <v>130.321177415908</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-1345.01370793685</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6118.25582304116</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7724.13943886907</v>
+      </c>
       <c r="G38" t="s">
         <v>10</v>
       </c>
@@ -1304,7 +1600,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>-409.813194603249</v>
+        <v>760.709859966908</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1315,23 +1611,31 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>1889.03522095372</v>
-      </c>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
+        <v>3291.10487080779</v>
+      </c>
+      <c r="C39" t="n">
+        <v>328.84443803771</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-1462.36412666957</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6542.74292952272</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8226.0190762596</v>
+      </c>
       <c r="G39" t="s">
         <v>10</v>
       </c>
       <c r="H39" t="n">
-        <v>5562</v>
+        <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-3672.96477904628</v>
+        <v>-2370.89512919221</v>
       </c>
       <c r="J39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -1339,12 +1643,20 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>2443.50627624112</v>
-      </c>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
+        <v>4986.18950842051</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1888.45471529033</v>
+      </c>
+      <c r="D40" t="n">
+        <v>83.917304543605</v>
+      </c>
+      <c r="E40" t="n">
+        <v>8248.9489749621</v>
+      </c>
+      <c r="F40" t="n">
+        <v>10070.3289865473</v>
+      </c>
       <c r="G40" t="s">
         <v>10</v>
       </c>
@@ -1352,9 +1664,297 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-4099.49372375888</v>
+        <v>-1556.81049157949</v>
       </c>
       <c r="J40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6040.2502642367</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2749.94917616572</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1541.23726495406</v>
+      </c>
+      <c r="E41" t="n">
+        <v>9263.62064052845</v>
+      </c>
+      <c r="F41" t="n">
+        <v>11108.5490764357</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="n">
+        <v>7677</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-1636.7497357633</v>
+      </c>
+      <c r="J41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6830.18299695834</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3480.99201398239</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2015.37314317829</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9951.59373218288</v>
+      </c>
+      <c r="F42" t="n">
+        <v>11962.0122805073</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9067</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-2236.81700304166</v>
+      </c>
+      <c r="J42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B43" t="n">
+        <v>7110.79764284715</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3690.31841812304</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1625.14547119685</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10196.5046250069</v>
+      </c>
+      <c r="F43" t="n">
+        <v>12333.4514184148</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="n">
+        <v>8326</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-1215.20235715285</v>
+      </c>
+      <c r="J43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6826.62773479405</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3483.11387120609</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1898.55355433195</v>
+      </c>
+      <c r="E44" t="n">
+        <v>10220.9234172925</v>
+      </c>
+      <c r="F44" t="n">
+        <v>11983.7778352445</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9164</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-2337.37226520595</v>
+      </c>
+      <c r="J44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5856.21407075717</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2448.94289489301</v>
+      </c>
+      <c r="D45" t="n">
+        <v>922.061452370645</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9257.96677795125</v>
+      </c>
+      <c r="F45" t="n">
+        <v>11095.8946437184</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>8354</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-2497.78592924283</v>
+      </c>
+      <c r="J45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4323.05634569921</v>
+      </c>
+      <c r="C46" t="n">
+        <v>634.044868450347</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-843.042651579144</v>
+      </c>
+      <c r="E46" t="n">
+        <v>7920.08092136347</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9511.55819311211</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5987</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1663.94365430079</v>
+      </c>
+      <c r="J46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3414.38579102306</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-29.8813408790665</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-1803.39740466336</v>
+      </c>
+      <c r="E47" t="n">
+        <v>7075.88653510073</v>
+      </c>
+      <c r="F47" t="n">
+        <v>9022.25314290655</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4477</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-1062.61420897694</v>
+      </c>
+      <c r="J47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3685.97227305801</v>
+      </c>
+      <c r="C48" t="n">
+        <v>295.910739827603</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-1062.85743792758</v>
+      </c>
+      <c r="E48" t="n">
+        <v>6943.4903149271</v>
+      </c>
+      <c r="F48" t="n">
+        <v>9096.96743788988</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4540</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-854.027726941995</v>
+      </c>
+      <c r="J48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3812.84429276733</v>
+      </c>
+      <c r="C49" t="n">
+        <v>373.420697585275</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-1338.48866222794</v>
+      </c>
+      <c r="E49" t="n">
+        <v>7309.25907964102</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9349.569400267</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3743</v>
+      </c>
+      <c r="I49" t="n">
+        <v>69.8442927673323</v>
+      </c>
+      <c r="J49" t="s">
         <v>11</v>
       </c>
     </row>

--- a/outcome/appendix/data/forecast/Brucellosis.xlsx
+++ b/outcome/appendix/data/forecast/Brucellosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2617.05332564868</v>
+        <v>2582.04238425712</v>
       </c>
       <c r="C2" t="n">
-        <v>1918.56224363972</v>
+        <v>1819.66840901447</v>
       </c>
       <c r="D2" t="n">
-        <v>1583.39567059336</v>
+        <v>1483.32867065942</v>
       </c>
       <c r="E2" t="n">
-        <v>3305.946612685</v>
+        <v>3238.35340494757</v>
       </c>
       <c r="F2" t="n">
-        <v>3690.8335521021</v>
+        <v>3576.69108510406</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>172.053325648676</v>
+        <v>137.042384257118</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2785.49396481887</v>
+        <v>2794.21475963456</v>
       </c>
       <c r="C3" t="n">
-        <v>1901.40048941763</v>
+        <v>2101.47725736127</v>
       </c>
       <c r="D3" t="n">
-        <v>1557.43023559512</v>
+        <v>1759.90473507225</v>
       </c>
       <c r="E3" t="n">
-        <v>3669.93759647157</v>
+        <v>3571.04725348336</v>
       </c>
       <c r="F3" t="n">
-        <v>4211.53732308981</v>
+        <v>4045.71609968114</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1852.49396481887</v>
+        <v>1861.21475963456</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4466.24117152829</v>
+        <v>4510.60947638389</v>
       </c>
       <c r="C4" t="n">
-        <v>3478.24896558611</v>
+        <v>3665.32446610589</v>
       </c>
       <c r="D4" t="n">
-        <v>3014.07693707039</v>
+        <v>3104.99484061535</v>
       </c>
       <c r="E4" t="n">
-        <v>5450.73333466691</v>
+        <v>5363.99537492911</v>
       </c>
       <c r="F4" t="n">
-        <v>6070.44908599805</v>
+        <v>5940.60798923582</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>958.24117152829</v>
+        <v>1002.60947638389</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5550.31358884277</v>
+        <v>5495.46999507682</v>
       </c>
       <c r="C5" t="n">
-        <v>4396.15519323052</v>
+        <v>4498.15931594665</v>
       </c>
       <c r="D5" t="n">
-        <v>3807.62177973789</v>
+        <v>3951.6646539826</v>
       </c>
       <c r="E5" t="n">
-        <v>6731.24860798319</v>
+        <v>6441.72793480102</v>
       </c>
       <c r="F5" t="n">
-        <v>7281.19675062732</v>
+        <v>7042.47557329767</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>190.31358884277</v>
+        <v>135.469995076817</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6350.76055968256</v>
+        <v>6318.87695417511</v>
       </c>
       <c r="C6" t="n">
-        <v>5159.80426300304</v>
+        <v>5129.5217046262</v>
       </c>
       <c r="D6" t="n">
-        <v>4607.13746097261</v>
+        <v>4617.0369479438</v>
       </c>
       <c r="E6" t="n">
-        <v>7565.63771284994</v>
+        <v>7419.56495442384</v>
       </c>
       <c r="F6" t="n">
-        <v>8019.17357058821</v>
+        <v>8245.51799279311</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>1086.76055968256</v>
+        <v>1054.87695417511</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6581.41292991702</v>
+        <v>6559.21602012507</v>
       </c>
       <c r="C7" t="n">
-        <v>5318.26543561858</v>
+        <v>5288.77012980378</v>
       </c>
       <c r="D7" t="n">
-        <v>4694.37916732581</v>
+        <v>4687.30788987933</v>
       </c>
       <c r="E7" t="n">
-        <v>7859.51513110879</v>
+        <v>7735.83650388387</v>
       </c>
       <c r="F7" t="n">
-        <v>8426.34251253361</v>
+        <v>8414.1112691081</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>388.412929917018</v>
+        <v>366.216020125073</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6347.03955496371</v>
+        <v>6318.67562368089</v>
       </c>
       <c r="C8" t="n">
-        <v>4998.76519227348</v>
+        <v>5042.55411295677</v>
       </c>
       <c r="D8" t="n">
-        <v>4265.06820302518</v>
+        <v>4109.28453627971</v>
       </c>
       <c r="E8" t="n">
-        <v>7672.37591391538</v>
+        <v>7593.7048752789</v>
       </c>
       <c r="F8" t="n">
-        <v>8504.22241813238</v>
+        <v>8352.75120526789</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>1375.03955496371</v>
+        <v>1346.67562368089</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5322.37801860428</v>
+        <v>5311.92300064667</v>
       </c>
       <c r="C9" t="n">
-        <v>3919.04210369935</v>
+        <v>3870.70112814458</v>
       </c>
       <c r="D9" t="n">
-        <v>2898.16603955049</v>
+        <v>3117.37904927655</v>
       </c>
       <c r="E9" t="n">
-        <v>6669.31598277175</v>
+        <v>6840.39966107097</v>
       </c>
       <c r="F9" t="n">
-        <v>7451.37882152369</v>
+        <v>7540.49627785842</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>350.378018604278</v>
+        <v>339.923000646674</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3863.49533183562</v>
+        <v>3791.00840049998</v>
       </c>
       <c r="C10" t="n">
-        <v>2443.13408659114</v>
+        <v>2286.56195089049</v>
       </c>
       <c r="D10" t="n">
-        <v>1607.56466720216</v>
+        <v>1521.16058951159</v>
       </c>
       <c r="E10" t="n">
-        <v>5190.73027545689</v>
+        <v>5294.11322412161</v>
       </c>
       <c r="F10" t="n">
-        <v>5993.10145506518</v>
+        <v>6103.03946206241</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-628.504668164378</v>
+        <v>-700.991599500022</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2926.36945321658</v>
+        <v>2837.22432044677</v>
       </c>
       <c r="C11" t="n">
-        <v>1319.77807117058</v>
+        <v>1383.13431134705</v>
       </c>
       <c r="D11" t="n">
-        <v>488.53341778933</v>
+        <v>442.778620941324</v>
       </c>
       <c r="E11" t="n">
-        <v>4452.72534485022</v>
+        <v>4374.30076203327</v>
       </c>
       <c r="F11" t="n">
-        <v>5161.80966000174</v>
+        <v>5145.66450985468</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-279.630546783415</v>
+        <v>-368.775679553234</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3236.88606748491</v>
+        <v>3124.72421879529</v>
       </c>
       <c r="C12" t="n">
-        <v>1734.42347335647</v>
+        <v>1523.24398130112</v>
       </c>
       <c r="D12" t="n">
-        <v>810.854767037513</v>
+        <v>723.513704171715</v>
       </c>
       <c r="E12" t="n">
-        <v>4890.59567823137</v>
+        <v>4652.99472079247</v>
       </c>
       <c r="F12" t="n">
-        <v>5678.40576688094</v>
+        <v>5433.22335582584</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-374.113932515085</v>
+        <v>-486.275781204715</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3239.99128120729</v>
+        <v>3254.62700964085</v>
       </c>
       <c r="C13" t="n">
-        <v>1519.47061332193</v>
+        <v>1578.33340282869</v>
       </c>
       <c r="D13" t="n">
-        <v>695.13732842805</v>
+        <v>493.281226872656</v>
       </c>
       <c r="E13" t="n">
-        <v>4825.67116279708</v>
+        <v>4951.678701802</v>
       </c>
       <c r="F13" t="n">
-        <v>5928.61038494909</v>
+        <v>5816.36052136088</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-454.008718792709</v>
+        <v>-439.372990359152</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2766.30421171642</v>
+        <v>2809.10720616239</v>
       </c>
       <c r="C14" t="n">
-        <v>914.140841161235</v>
+        <v>969.158932497004</v>
       </c>
       <c r="D14" t="n">
-        <v>18.3264789915507</v>
+        <v>128.333274812744</v>
       </c>
       <c r="E14" t="n">
-        <v>4321.5868519699</v>
+        <v>4543.78356949998</v>
       </c>
       <c r="F14" t="n">
-        <v>5345.02208496474</v>
+        <v>5618.31572871633</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-408.695788283579</v>
+        <v>-365.892793837615</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>3031.67325517078</v>
+        <v>2968.90689713953</v>
       </c>
       <c r="C15" t="n">
-        <v>1254.69641529393</v>
+        <v>1283.7702348622</v>
       </c>
       <c r="D15" t="n">
-        <v>249.739661203505</v>
+        <v>243.118336704343</v>
       </c>
       <c r="E15" t="n">
-        <v>4830.28451148521</v>
+        <v>4661.87018960585</v>
       </c>
       <c r="F15" t="n">
-        <v>5801.43402002503</v>
+        <v>5862.79240846414</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-393.326744829216</v>
+        <v>-456.093102860466</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4700.32669124057</v>
+        <v>4659.97042297792</v>
       </c>
       <c r="C16" t="n">
-        <v>2752.94618988444</v>
+        <v>2706.24875384807</v>
       </c>
       <c r="D16" t="n">
-        <v>1831.98222317202</v>
+        <v>1814.01688742261</v>
       </c>
       <c r="E16" t="n">
-        <v>6435.924798322</v>
+        <v>6446.65910587697</v>
       </c>
       <c r="F16" t="n">
-        <v>7821.33635247711</v>
+        <v>7547.40080733776</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2519.67330875943</v>
+        <v>-2560.02957702208</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5692.29292022027</v>
+        <v>5754.35252496917</v>
       </c>
       <c r="C17" t="n">
-        <v>3860.30672443449</v>
+        <v>3949.15999668251</v>
       </c>
       <c r="D17" t="n">
-        <v>2587.36186157178</v>
+        <v>2764.76568074533</v>
       </c>
       <c r="E17" t="n">
-        <v>7296.312645126</v>
+        <v>7700.12350158027</v>
       </c>
       <c r="F17" t="n">
-        <v>8757.19095689373</v>
+        <v>8601.01101014575</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2155.70707977973</v>
+        <v>-2093.64747503083</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6494.87912287959</v>
+        <v>6540.84336025061</v>
       </c>
       <c r="C18" t="n">
-        <v>4513.27294802984</v>
+        <v>4600.34260054423</v>
       </c>
       <c r="D18" t="n">
-        <v>3728.33069647826</v>
+        <v>3595.5908799107</v>
       </c>
       <c r="E18" t="n">
-        <v>8238.21596654754</v>
+        <v>8499.60859368236</v>
       </c>
       <c r="F18" t="n">
-        <v>9356.5836704254</v>
+        <v>9485.12455810642</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-1601.12087712041</v>
+        <v>-1555.15663974939</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6690.57078712005</v>
+        <v>6818.29362673487</v>
       </c>
       <c r="C19" t="n">
-        <v>4621.3109023357</v>
+        <v>4606.44090768415</v>
       </c>
       <c r="D19" t="n">
-        <v>3471.41075436547</v>
+        <v>3919.48769365295</v>
       </c>
       <c r="E19" t="n">
-        <v>8570.90978164455</v>
+        <v>8818.61044887162</v>
       </c>
       <c r="F19" t="n">
-        <v>9569.94556017685</v>
+        <v>9960.42048326229</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-2979.42921287995</v>
+        <v>-2851.70637326513</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6474.18141400628</v>
+        <v>6582.88089337138</v>
       </c>
       <c r="C20" t="n">
-        <v>4344.56667875114</v>
+        <v>4569.30233065677</v>
       </c>
       <c r="D20" t="n">
-        <v>3177.38324825548</v>
+        <v>3291.11172087232</v>
       </c>
       <c r="E20" t="n">
-        <v>8408.43096303438</v>
+        <v>8715.44596571403</v>
       </c>
       <c r="F20" t="n">
-        <v>9533.06409974522</v>
+        <v>9587.63535125817</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-2747.81858599372</v>
+        <v>-2639.11910662862</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5539.75537660915</v>
+        <v>5549.89643333081</v>
       </c>
       <c r="C21" t="n">
-        <v>3575.07355816108</v>
+        <v>3384.89935442438</v>
       </c>
       <c r="D21" t="n">
-        <v>2206.10788220824</v>
+        <v>2394.67783960065</v>
       </c>
       <c r="E21" t="n">
-        <v>7532.80507656682</v>
+        <v>7682.20978412173</v>
       </c>
       <c r="F21" t="n">
-        <v>8763.27137851564</v>
+        <v>8667.38066194223</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-1327.24462339085</v>
+        <v>-1317.10356666919</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3942.3544630424</v>
+        <v>4050.68509306219</v>
       </c>
       <c r="C22" t="n">
-        <v>1968.75200093949</v>
+        <v>2046.60428307381</v>
       </c>
       <c r="D22" t="n">
-        <v>792.572397447689</v>
+        <v>534.844223801539</v>
       </c>
       <c r="E22" t="n">
-        <v>5889.95871361593</v>
+        <v>6147.59268758051</v>
       </c>
       <c r="F22" t="n">
-        <v>6915.0433436599</v>
+        <v>6977.57898015544</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-1989.6455369576</v>
+        <v>-1881.31490693781</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3044.56756396755</v>
+        <v>3125.64886851201</v>
       </c>
       <c r="C23" t="n">
-        <v>1024.98356277029</v>
+        <v>835.311911778243</v>
       </c>
       <c r="D23" t="n">
-        <v>-58.1900859385882</v>
+        <v>-250.172108098602</v>
       </c>
       <c r="E23" t="n">
-        <v>5126.12057953225</v>
+        <v>5405.81815173521</v>
       </c>
       <c r="F23" t="n">
-        <v>6218.19771647489</v>
+        <v>6423.05024521592</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-577.432436032453</v>
+        <v>-496.351131487995</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3308.7334746162</v>
+        <v>3403.59919522698</v>
       </c>
       <c r="C24" t="n">
-        <v>1154.95839351427</v>
+        <v>1254.86043553796</v>
       </c>
       <c r="D24" t="n">
-        <v>87.6993925876346</v>
+        <v>-113.619140576509</v>
       </c>
       <c r="E24" t="n">
-        <v>5453.41582934552</v>
+        <v>5652.1115457959</v>
       </c>
       <c r="F24" t="n">
-        <v>6878.21048867337</v>
+        <v>6793.4223670868</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-340.266525383798</v>
+        <v>-245.400804773021</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3458.48718480823</v>
+        <v>3459.79139367546</v>
       </c>
       <c r="C25" t="n">
-        <v>1227.67604598083</v>
+        <v>1241.60487914349</v>
       </c>
       <c r="D25" t="n">
-        <v>144.867399040929</v>
+        <v>-124.502104828062</v>
       </c>
       <c r="E25" t="n">
-        <v>5681.50081366769</v>
+        <v>5666.36149684906</v>
       </c>
       <c r="F25" t="n">
-        <v>7274.82207576445</v>
+        <v>6970.40223733358</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1460.51281519177</v>
+        <v>-1459.20860632454</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2986.24087328007</v>
+        <v>2999.73191134774</v>
       </c>
       <c r="C26" t="n">
-        <v>594.821372159772</v>
+        <v>563.320256871764</v>
       </c>
       <c r="D26" t="n">
-        <v>-453.254670458066</v>
+        <v>-673.365890753859</v>
       </c>
       <c r="E26" t="n">
-        <v>5232.40108205163</v>
+        <v>5206.17103428433</v>
       </c>
       <c r="F26" t="n">
-        <v>6721.05222520938</v>
+        <v>6300.40117613235</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1409.75912671993</v>
+        <v>-1396.26808865226</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>3110.62250846159</v>
+        <v>3154.59017079472</v>
       </c>
       <c r="C27" t="n">
-        <v>725.924363347274</v>
+        <v>769.355640336457</v>
       </c>
       <c r="D27" t="n">
-        <v>-475.703255574535</v>
+        <v>-409.694119576766</v>
       </c>
       <c r="E27" t="n">
-        <v>5518.38033494897</v>
+        <v>5522.66033741325</v>
       </c>
       <c r="F27" t="n">
-        <v>7104.91345549916</v>
+        <v>6813.72445411389</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-1578.37749153841</v>
+        <v>-1534.40982920528</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4798.53564733087</v>
+        <v>4860.25766951514</v>
       </c>
       <c r="C28" t="n">
-        <v>2345.93344402158</v>
+        <v>2506.3788378966</v>
       </c>
       <c r="D28" t="n">
-        <v>1266.76404493838</v>
+        <v>1162.09361338766</v>
       </c>
       <c r="E28" t="n">
-        <v>7300.90315856598</v>
+        <v>7145.11143349726</v>
       </c>
       <c r="F28" t="n">
-        <v>8393.4428454034</v>
+        <v>8767.3487293162</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-1857.46435266913</v>
+        <v>-1795.74233048486</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5877.90402296665</v>
+        <v>5865.9799494133</v>
       </c>
       <c r="C29" t="n">
-        <v>3197.20459939547</v>
+        <v>3551.26681684426</v>
       </c>
       <c r="D29" t="n">
-        <v>1926.45907417071</v>
+        <v>2062.22355654333</v>
       </c>
       <c r="E29" t="n">
-        <v>8345.43206975943</v>
+        <v>8355.1826379562</v>
       </c>
       <c r="F29" t="n">
-        <v>9915.60142859588</v>
+        <v>9524.39170880498</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-1246.09597703335</v>
+        <v>-1258.0200505867</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6691.93941020049</v>
+        <v>6680.59610590732</v>
       </c>
       <c r="C30" t="n">
-        <v>4089.16992293242</v>
+        <v>4179.86708228867</v>
       </c>
       <c r="D30" t="n">
-        <v>2888.42686780282</v>
+        <v>2690.6732262293</v>
       </c>
       <c r="E30" t="n">
-        <v>9192.62987333158</v>
+        <v>9209.27282298614</v>
       </c>
       <c r="F30" t="n">
-        <v>10883.5651959758</v>
+        <v>10680.443945663</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-2132.06058979951</v>
+        <v>-2143.40389409268</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6905.55360524303</v>
+        <v>6917.33949420054</v>
       </c>
       <c r="C31" t="n">
-        <v>4147.69940299787</v>
+        <v>4358.52318699062</v>
       </c>
       <c r="D31" t="n">
-        <v>2985.71549272728</v>
+        <v>2750.60516282654</v>
       </c>
       <c r="E31" t="n">
-        <v>9341.98574186911</v>
+        <v>9558.84698433996</v>
       </c>
       <c r="F31" t="n">
-        <v>11015.048201277</v>
+        <v>10539.763028841</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-3037.44639475697</v>
+        <v>-3025.66050579946</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6608.43542287409</v>
+        <v>6668.8430846079</v>
       </c>
       <c r="C32" t="n">
-        <v>4015.43872990517</v>
+        <v>4089.67577339024</v>
       </c>
       <c r="D32" t="n">
-        <v>2563.97164476228</v>
+        <v>2391.77809884216</v>
       </c>
       <c r="E32" t="n">
-        <v>9205.49678421601</v>
+        <v>9235.57720347868</v>
       </c>
       <c r="F32" t="n">
-        <v>10605.7848512104</v>
+        <v>10349.1039047652</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-3074.56457712591</v>
+        <v>-3014.1569153921</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>5644.97803215735</v>
+        <v>5719.43727541006</v>
       </c>
       <c r="C33" t="n">
-        <v>2775.62417360704</v>
+        <v>3126.19651722873</v>
       </c>
       <c r="D33" t="n">
-        <v>1600.2687421971</v>
+        <v>1420.61418914692</v>
       </c>
       <c r="E33" t="n">
-        <v>8194.5369512029</v>
+        <v>8422.15266333887</v>
       </c>
       <c r="F33" t="n">
-        <v>9748.60547468095</v>
+        <v>9365.03432957686</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-2242.02196784265</v>
+        <v>-2167.56272458994</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4084.30747022552</v>
+        <v>4110.21100869581</v>
       </c>
       <c r="C34" t="n">
-        <v>1299.28394290213</v>
+        <v>1420.72395621565</v>
       </c>
       <c r="D34" t="n">
-        <v>38.9135191335272</v>
+        <v>-221.03713459578</v>
       </c>
       <c r="E34" t="n">
-        <v>6747.65564460104</v>
+        <v>6645.05551193788</v>
       </c>
       <c r="F34" t="n">
-        <v>8215.07732704811</v>
+        <v>7926.06517172248</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-1226.69252977448</v>
+        <v>-1200.78899130419</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3166.71376357902</v>
+        <v>3227.60417786158</v>
       </c>
       <c r="C35" t="n">
-        <v>167.888680432916</v>
+        <v>229.991618377427</v>
       </c>
       <c r="D35" t="n">
-        <v>-1540.90973153709</v>
+        <v>-1131.42694583543</v>
       </c>
       <c r="E35" t="n">
-        <v>5954.65503673947</v>
+        <v>5975.74039729079</v>
       </c>
       <c r="F35" t="n">
-        <v>7347.39351324395</v>
+        <v>6881.25614062543</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>631.713763579025</v>
+        <v>692.604177861578</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3458.67696437311</v>
+        <v>3521.9635879857</v>
       </c>
       <c r="C36" t="n">
-        <v>489.620463001207</v>
+        <v>626.422489869349</v>
       </c>
       <c r="D36" t="n">
-        <v>-657.94173289693</v>
+        <v>-728.7915315109</v>
       </c>
       <c r="E36" t="n">
-        <v>6347.22980680331</v>
+        <v>6138.72830951037</v>
       </c>
       <c r="F36" t="n">
-        <v>8095.14780675597</v>
+        <v>7508.45562968253</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>889.676964373109</v>
+        <v>952.963587985701</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3563.65201516828</v>
+        <v>3646.6145588471</v>
       </c>
       <c r="C37" t="n">
-        <v>681.860086723252</v>
+        <v>527.057155997839</v>
       </c>
       <c r="D37" t="n">
-        <v>-731.534438621667</v>
+        <v>-848.751324440367</v>
       </c>
       <c r="E37" t="n">
-        <v>6673.82294386245</v>
+        <v>6462.40222553113</v>
       </c>
       <c r="F37" t="n">
-        <v>7819.8563463737</v>
+        <v>7835.99387833647</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1743.65201516828</v>
+        <v>1826.6145588471</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>3078.70985996691</v>
+        <v>3163.00404831347</v>
       </c>
       <c r="C38" t="n">
-        <v>130.321177415908</v>
+        <v>-178.553988548186</v>
       </c>
       <c r="D38" t="n">
-        <v>-1345.01370793685</v>
+        <v>-1504.19978117841</v>
       </c>
       <c r="E38" t="n">
-        <v>6118.25582304116</v>
+        <v>6042.56918447193</v>
       </c>
       <c r="F38" t="n">
-        <v>7724.13943886907</v>
+        <v>7330.14575366139</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>760.709859966908</v>
+        <v>845.00404831347</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>3291.10487080779</v>
+        <v>3380.561761179</v>
       </c>
       <c r="C39" t="n">
-        <v>328.84443803771</v>
+        <v>-12.7906393890016</v>
       </c>
       <c r="D39" t="n">
-        <v>-1462.36412666957</v>
+        <v>-1319.50914143697</v>
       </c>
       <c r="E39" t="n">
-        <v>6542.74292952272</v>
+        <v>6351.18042212016</v>
       </c>
       <c r="F39" t="n">
-        <v>8226.0190762596</v>
+        <v>7693.68491661377</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2370.89512919221</v>
+        <v>-2281.438238821</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4986.18950842051</v>
+        <v>5043.91458993327</v>
       </c>
       <c r="C40" t="n">
-        <v>1888.45471529033</v>
+        <v>1807.5447192416</v>
       </c>
       <c r="D40" t="n">
-        <v>83.917304543605</v>
+        <v>139.791439437459</v>
       </c>
       <c r="E40" t="n">
-        <v>8248.9489749621</v>
+        <v>8052.90596554347</v>
       </c>
       <c r="F40" t="n">
-        <v>10070.3289865473</v>
+        <v>9317.29547200691</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-1556.81049157949</v>
+        <v>-1499.08541006673</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>6040.2502642367</v>
+        <v>6076.14785145322</v>
       </c>
       <c r="C41" t="n">
-        <v>2749.94917616572</v>
+        <v>2717.58174656423</v>
       </c>
       <c r="D41" t="n">
-        <v>1541.23726495406</v>
+        <v>930.543771594815</v>
       </c>
       <c r="E41" t="n">
-        <v>9263.62064052845</v>
+        <v>9152.60691139783</v>
       </c>
       <c r="F41" t="n">
-        <v>11108.5490764357</v>
+        <v>10623.6143882514</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-1636.7497357633</v>
+        <v>-1600.85214854678</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>6830.18299695834</v>
+        <v>6923.89860549483</v>
       </c>
       <c r="C42" t="n">
-        <v>3480.99201398239</v>
+        <v>3896.71267630669</v>
       </c>
       <c r="D42" t="n">
-        <v>2015.37314317829</v>
+        <v>1807.31983640654</v>
       </c>
       <c r="E42" t="n">
-        <v>9951.59373218288</v>
+        <v>10183.0269442565</v>
       </c>
       <c r="F42" t="n">
-        <v>11962.0122805073</v>
+        <v>11566.4865557627</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-2236.81700304166</v>
+        <v>-2143.10139450517</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>7110.79764284715</v>
+        <v>7132.92752256652</v>
       </c>
       <c r="C43" t="n">
-        <v>3690.31841812304</v>
+        <v>3651.58260636802</v>
       </c>
       <c r="D43" t="n">
-        <v>1625.14547119685</v>
+        <v>1668.08820618607</v>
       </c>
       <c r="E43" t="n">
-        <v>10196.5046250069</v>
+        <v>10229.5759107305</v>
       </c>
       <c r="F43" t="n">
-        <v>12333.4514184148</v>
+        <v>12053.6482905718</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-1215.20235715285</v>
+        <v>-1193.07247743348</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6826.62773479405</v>
+        <v>6886.36288609639</v>
       </c>
       <c r="C44" t="n">
-        <v>3483.11387120609</v>
+        <v>3621.35327727877</v>
       </c>
       <c r="D44" t="n">
-        <v>1898.55355433195</v>
+        <v>1717.95044339452</v>
       </c>
       <c r="E44" t="n">
-        <v>10220.9234172925</v>
+        <v>10004.5532237471</v>
       </c>
       <c r="F44" t="n">
-        <v>11983.7778352445</v>
+        <v>11652.2597126335</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-2337.37226520595</v>
+        <v>-2277.63711390361</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>5856.21407075717</v>
+        <v>5896.51370344849</v>
       </c>
       <c r="C45" t="n">
-        <v>2448.94289489301</v>
+        <v>2310.12106615704</v>
       </c>
       <c r="D45" t="n">
-        <v>922.061452370645</v>
+        <v>710.702397619345</v>
       </c>
       <c r="E45" t="n">
-        <v>9257.96677795125</v>
+        <v>9082.61412815551</v>
       </c>
       <c r="F45" t="n">
-        <v>11095.8946437184</v>
+        <v>10699.3087791519</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2497.78592924283</v>
+        <v>-2457.48629655151</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4323.05634569921</v>
+        <v>4343.50286371002</v>
       </c>
       <c r="C46" t="n">
-        <v>634.044868450347</v>
+        <v>594.925295092201</v>
       </c>
       <c r="D46" t="n">
-        <v>-843.042651579144</v>
+        <v>-1207.84373565273</v>
       </c>
       <c r="E46" t="n">
-        <v>7920.08092136347</v>
+        <v>7589.41548794487</v>
       </c>
       <c r="F46" t="n">
-        <v>9511.55819311211</v>
+        <v>9282.04651307966</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1663.94365430079</v>
+        <v>-1643.49713628998</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3414.38579102306</v>
+        <v>3484.33114702258</v>
       </c>
       <c r="C47" t="n">
-        <v>-29.8813408790665</v>
+        <v>-62.1433382067944</v>
       </c>
       <c r="D47" t="n">
-        <v>-1803.39740466336</v>
+        <v>-1881.90594520739</v>
       </c>
       <c r="E47" t="n">
-        <v>7075.88653510073</v>
+        <v>6875.53754700075</v>
       </c>
       <c r="F47" t="n">
-        <v>9022.25314290655</v>
+        <v>8654.94800428033</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-1062.61420897694</v>
+        <v>-992.668852977422</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3685.97227305801</v>
+        <v>3733.02897524774</v>
       </c>
       <c r="C48" t="n">
-        <v>295.910739827603</v>
+        <v>154.234355074473</v>
       </c>
       <c r="D48" t="n">
-        <v>-1062.85743792758</v>
+        <v>-1300.97331511688</v>
       </c>
       <c r="E48" t="n">
-        <v>6943.4903149271</v>
+        <v>7063.00320678196</v>
       </c>
       <c r="F48" t="n">
-        <v>9096.96743788988</v>
+        <v>8811.58980173671</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-854.027726941995</v>
+        <v>-806.971024752263</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3812.84429276733</v>
+        <v>3842.37487909147</v>
       </c>
       <c r="C49" t="n">
-        <v>373.420697585275</v>
+        <v>50.6521570476047</v>
       </c>
       <c r="D49" t="n">
-        <v>-1338.48866222794</v>
+        <v>-1458.70811177105</v>
       </c>
       <c r="E49" t="n">
-        <v>7309.25907964102</v>
+        <v>7381.2992758554</v>
       </c>
       <c r="F49" t="n">
-        <v>9349.569400267</v>
+        <v>9302.48043323068</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>69.8442927673323</v>
+        <v>99.3748790914674</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/data/forecast/Brucellosis.xlsx
+++ b/outcome/appendix/data/forecast/Brucellosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2582.04238425712</v>
+        <v>2555.15995797237</v>
       </c>
       <c r="C2" t="n">
-        <v>1819.66840901447</v>
+        <v>1744.44714235741</v>
       </c>
       <c r="D2" t="n">
-        <v>1483.32867065942</v>
+        <v>1282.77457119026</v>
       </c>
       <c r="E2" t="n">
-        <v>3238.35340494757</v>
+        <v>3271.60836321638</v>
       </c>
       <c r="F2" t="n">
-        <v>3576.69108510406</v>
+        <v>3678.91292686829</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>137.042384257118</v>
+        <v>110.159957972368</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2794.21475963456</v>
+        <v>2595.37747828042</v>
       </c>
       <c r="C3" t="n">
-        <v>2101.47725736127</v>
+        <v>1554.35868951938</v>
       </c>
       <c r="D3" t="n">
-        <v>1759.90473507225</v>
+        <v>1184.10792290528</v>
       </c>
       <c r="E3" t="n">
-        <v>3571.04725348336</v>
+        <v>3476.76635922184</v>
       </c>
       <c r="F3" t="n">
-        <v>4045.71609968114</v>
+        <v>3857.71327860743</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1861.21475963456</v>
+        <v>1662.37747828042</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4510.60947638389</v>
+        <v>4420.00926231258</v>
       </c>
       <c r="C4" t="n">
-        <v>3665.32446610589</v>
+        <v>3172.87278707487</v>
       </c>
       <c r="D4" t="n">
-        <v>3104.99484061535</v>
+        <v>2822.6958747488</v>
       </c>
       <c r="E4" t="n">
-        <v>5363.99537492911</v>
+        <v>5596.16176007132</v>
       </c>
       <c r="F4" t="n">
-        <v>5940.60798923582</v>
+        <v>6030.57692324318</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>1002.60947638389</v>
+        <v>912.009262312581</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5495.46999507682</v>
+        <v>4989.45768710487</v>
       </c>
       <c r="C5" t="n">
-        <v>4498.15931594665</v>
+        <v>3698.61255780743</v>
       </c>
       <c r="D5" t="n">
-        <v>3951.6646539826</v>
+        <v>3193.37832919562</v>
       </c>
       <c r="E5" t="n">
-        <v>6441.72793480102</v>
+        <v>6480.08200811983</v>
       </c>
       <c r="F5" t="n">
-        <v>7042.47557329767</v>
+        <v>6973.0112930434</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,10 +544,10 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>135.469995076817</v>
+        <v>-370.542312895134</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6318.87695417511</v>
+        <v>5739.47897482285</v>
       </c>
       <c r="C6" t="n">
-        <v>5129.5217046262</v>
+        <v>4275.24548912612</v>
       </c>
       <c r="D6" t="n">
-        <v>4617.0369479438</v>
+        <v>3839.32316032492</v>
       </c>
       <c r="E6" t="n">
-        <v>7419.56495442384</v>
+        <v>7364.26587048967</v>
       </c>
       <c r="F6" t="n">
-        <v>8245.51799279311</v>
+        <v>7909.46494044199</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>1054.87695417511</v>
+        <v>475.478974822849</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6559.21602012507</v>
+        <v>5982.92445794894</v>
       </c>
       <c r="C7" t="n">
-        <v>5288.77012980378</v>
+        <v>4568.69647419585</v>
       </c>
       <c r="D7" t="n">
-        <v>4687.30788987933</v>
+        <v>4024.01930121598</v>
       </c>
       <c r="E7" t="n">
-        <v>7735.83650388387</v>
+        <v>7687.94166416404</v>
       </c>
       <c r="F7" t="n">
-        <v>8414.1112691081</v>
+        <v>8280.82004277006</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,10 +608,10 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>366.216020125073</v>
+        <v>-210.075542051065</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6318.67562368089</v>
+        <v>5909.62593587605</v>
       </c>
       <c r="C8" t="n">
-        <v>5042.55411295677</v>
+        <v>4508.01441782727</v>
       </c>
       <c r="D8" t="n">
-        <v>4109.28453627971</v>
+        <v>3930.19074426093</v>
       </c>
       <c r="E8" t="n">
-        <v>7593.7048752789</v>
+        <v>7472.82944178799</v>
       </c>
       <c r="F8" t="n">
-        <v>8352.75120526789</v>
+        <v>8109.82827833334</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>1346.67562368089</v>
+        <v>937.625935876049</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5311.92300064667</v>
+        <v>5127.75885666524</v>
       </c>
       <c r="C9" t="n">
-        <v>3870.70112814458</v>
+        <v>3704.75311840279</v>
       </c>
       <c r="D9" t="n">
-        <v>3117.37904927655</v>
+        <v>3107.20703884147</v>
       </c>
       <c r="E9" t="n">
-        <v>6840.39966107097</v>
+        <v>6498.24065197739</v>
       </c>
       <c r="F9" t="n">
-        <v>7540.49627785842</v>
+        <v>7176.4959606199</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>339.923000646674</v>
+        <v>155.758856665242</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3791.00840049998</v>
+        <v>3706.25422480188</v>
       </c>
       <c r="C10" t="n">
-        <v>2286.56195089049</v>
+        <v>2280.91237764028</v>
       </c>
       <c r="D10" t="n">
-        <v>1521.16058951159</v>
+        <v>1563.77012561258</v>
       </c>
       <c r="E10" t="n">
-        <v>5294.11322412161</v>
+        <v>5007.75353862252</v>
       </c>
       <c r="F10" t="n">
-        <v>6103.03946206241</v>
+        <v>5707.48255306939</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-700.991599500022</v>
+        <v>-785.74577519812</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2837.22432044677</v>
+        <v>2750.88756080361</v>
       </c>
       <c r="C11" t="n">
-        <v>1383.13431134705</v>
+        <v>1270.95727147084</v>
       </c>
       <c r="D11" t="n">
-        <v>442.778620941324</v>
+        <v>516.930908811685</v>
       </c>
       <c r="E11" t="n">
-        <v>4374.30076203327</v>
+        <v>4119.73668196159</v>
       </c>
       <c r="F11" t="n">
-        <v>5145.66450985468</v>
+        <v>4873.76304462074</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-368.775679553234</v>
+        <v>-455.112439196392</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3124.72421879529</v>
+        <v>2981.65005926493</v>
       </c>
       <c r="C12" t="n">
-        <v>1523.24398130112</v>
+        <v>1485.16038457302</v>
       </c>
       <c r="D12" t="n">
-        <v>723.513704171715</v>
+        <v>695.97187634028</v>
       </c>
       <c r="E12" t="n">
-        <v>4652.99472079247</v>
+        <v>4466.78554330187</v>
       </c>
       <c r="F12" t="n">
-        <v>5433.22335582584</v>
+        <v>5255.9740515346</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-486.275781204715</v>
+        <v>-629.349940735074</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3254.62700964085</v>
+        <v>3091.21743239669</v>
       </c>
       <c r="C13" t="n">
-        <v>1578.33340282869</v>
+        <v>1495.37848461347</v>
       </c>
       <c r="D13" t="n">
-        <v>493.281226872656</v>
+        <v>672.520992798423</v>
       </c>
       <c r="E13" t="n">
-        <v>4951.678701802</v>
+        <v>4604.20809129182</v>
       </c>
       <c r="F13" t="n">
-        <v>5816.36052136088</v>
+        <v>5427.06558310687</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-439.372990359152</v>
+        <v>-602.782567603309</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2809.10720616239</v>
+        <v>2625.10485208971</v>
       </c>
       <c r="C14" t="n">
-        <v>969.158932497004</v>
+        <v>914.535566587633</v>
       </c>
       <c r="D14" t="n">
-        <v>128.333274812744</v>
+        <v>59.3413209464643</v>
       </c>
       <c r="E14" t="n">
-        <v>4543.78356949998</v>
+        <v>4232.71479127164</v>
       </c>
       <c r="F14" t="n">
-        <v>5618.31572871633</v>
+        <v>5000.73058302548</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-365.892793837615</v>
+        <v>-549.895147910294</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2968.90689713953</v>
+        <v>2629.7686941966</v>
       </c>
       <c r="C15" t="n">
-        <v>1283.7702348622</v>
+        <v>1109.73360437002</v>
       </c>
       <c r="D15" t="n">
-        <v>243.118336704343</v>
+        <v>223.381561601806</v>
       </c>
       <c r="E15" t="n">
-        <v>4661.87018960585</v>
+        <v>4458.45133484799</v>
       </c>
       <c r="F15" t="n">
-        <v>5862.79240846414</v>
+        <v>5344.80337761621</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-456.093102860466</v>
+        <v>-795.2313058034</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4659.97042297792</v>
+        <v>4441.25268827039</v>
       </c>
       <c r="C16" t="n">
-        <v>2706.24875384807</v>
+        <v>2881.79791377385</v>
       </c>
       <c r="D16" t="n">
-        <v>1814.01688742261</v>
+        <v>2104.92100452984</v>
       </c>
       <c r="E16" t="n">
-        <v>6446.65910587697</v>
+        <v>6506.7493935158</v>
       </c>
       <c r="F16" t="n">
-        <v>7547.40080733776</v>
+        <v>7423.2005322357</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2560.02957702208</v>
+        <v>-2778.74731172961</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5754.35252496917</v>
+        <v>5026.04896116134</v>
       </c>
       <c r="C17" t="n">
-        <v>3949.15999668251</v>
+        <v>3212.30103976393</v>
       </c>
       <c r="D17" t="n">
-        <v>2764.76568074533</v>
+        <v>2353.56278998589</v>
       </c>
       <c r="E17" t="n">
-        <v>7700.12350158027</v>
+        <v>7335.18343548591</v>
       </c>
       <c r="F17" t="n">
-        <v>8601.01101014575</v>
+        <v>8280.77607272598</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2093.64747503083</v>
+        <v>-2821.95103883866</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6540.84336025061</v>
+        <v>5776.16485974206</v>
       </c>
       <c r="C18" t="n">
-        <v>4600.34260054423</v>
+        <v>3974.86523361604</v>
       </c>
       <c r="D18" t="n">
-        <v>3595.5908799107</v>
+        <v>3085.65631581093</v>
       </c>
       <c r="E18" t="n">
-        <v>8499.60859368236</v>
+        <v>8174.03037774653</v>
       </c>
       <c r="F18" t="n">
-        <v>9485.12455810642</v>
+        <v>9147.89288423513</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-1555.15663974939</v>
+        <v>-2319.83514025794</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6818.29362673487</v>
+        <v>6001.14237595462</v>
       </c>
       <c r="C19" t="n">
-        <v>4606.44090768415</v>
+        <v>4058.55539687194</v>
       </c>
       <c r="D19" t="n">
-        <v>3919.48769365295</v>
+        <v>3140.9783468377</v>
       </c>
       <c r="E19" t="n">
-        <v>8818.61044887162</v>
+        <v>8459.53378273635</v>
       </c>
       <c r="F19" t="n">
-        <v>9960.42048326229</v>
+        <v>9460.86835593648</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-2851.70637326513</v>
+        <v>-3668.85762404538</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6582.88089337138</v>
+        <v>5938.45863435258</v>
       </c>
       <c r="C20" t="n">
-        <v>4569.30233065677</v>
+        <v>4015.74337457527</v>
       </c>
       <c r="D20" t="n">
-        <v>3291.11172087232</v>
+        <v>3071.2597540294</v>
       </c>
       <c r="E20" t="n">
-        <v>8715.44596571403</v>
+        <v>8211.58573614634</v>
       </c>
       <c r="F20" t="n">
-        <v>9587.63535125817</v>
+        <v>9239.65853192857</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-2639.11910662862</v>
+        <v>-3283.54136564742</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5549.89643333081</v>
+        <v>5242.53788628045</v>
       </c>
       <c r="C21" t="n">
-        <v>3384.89935442438</v>
+        <v>3168.01097664527</v>
       </c>
       <c r="D21" t="n">
-        <v>2394.67783960065</v>
+        <v>2171.54818529046</v>
       </c>
       <c r="E21" t="n">
-        <v>7682.20978412173</v>
+        <v>7208.29054674549</v>
       </c>
       <c r="F21" t="n">
-        <v>8667.38066194223</v>
+        <v>8262.42356461806</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-1317.10356666919</v>
+        <v>-1624.46211371955</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4050.68509306219</v>
+        <v>3913.26506480411</v>
       </c>
       <c r="C22" t="n">
-        <v>2046.60428307381</v>
+        <v>1596.28075551273</v>
       </c>
       <c r="D22" t="n">
-        <v>534.844223801539</v>
+        <v>516.716414998119</v>
       </c>
       <c r="E22" t="n">
-        <v>6147.59268758051</v>
+        <v>6019.62699100673</v>
       </c>
       <c r="F22" t="n">
-        <v>6977.57898015544</v>
+        <v>6754.53626368385</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-1881.31490693781</v>
+        <v>-2018.73493519589</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3125.64886851201</v>
+        <v>2911.52695166342</v>
       </c>
       <c r="C23" t="n">
-        <v>835.311911778243</v>
+        <v>609.066428788389</v>
       </c>
       <c r="D23" t="n">
-        <v>-250.172108098602</v>
+        <v>-495.343780894754</v>
       </c>
       <c r="E23" t="n">
-        <v>5405.81815173521</v>
+        <v>4860.05348911032</v>
       </c>
       <c r="F23" t="n">
-        <v>6423.05024521592</v>
+        <v>5886.03773432718</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-496.351131487995</v>
+        <v>-710.473048336582</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3403.59919522698</v>
+        <v>3054.10973402096</v>
       </c>
       <c r="C24" t="n">
-        <v>1254.86043553796</v>
+        <v>843.790364101251</v>
       </c>
       <c r="D24" t="n">
-        <v>-113.619140576509</v>
+        <v>-284.918924065541</v>
       </c>
       <c r="E24" t="n">
-        <v>5652.1115457959</v>
+        <v>5288.80013450014</v>
       </c>
       <c r="F24" t="n">
-        <v>6793.4223670868</v>
+        <v>6331.89192593679</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-245.400804773021</v>
+        <v>-594.890265979041</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3459.79139367546</v>
+        <v>3145.21365829168</v>
       </c>
       <c r="C25" t="n">
-        <v>1241.60487914349</v>
+        <v>872.665392514946</v>
       </c>
       <c r="D25" t="n">
-        <v>-124.502104828062</v>
+        <v>-279.836497940562</v>
       </c>
       <c r="E25" t="n">
-        <v>5666.36149684906</v>
+        <v>5385.31206473107</v>
       </c>
       <c r="F25" t="n">
-        <v>6970.40223733358</v>
+        <v>6451.45145966583</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1459.20860632454</v>
+        <v>-1773.78634170832</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2999.73191134774</v>
+        <v>2695.23807300585</v>
       </c>
       <c r="C26" t="n">
-        <v>563.320256871764</v>
+        <v>308.882650776172</v>
       </c>
       <c r="D26" t="n">
-        <v>-673.365890753859</v>
+        <v>-866.924881707415</v>
       </c>
       <c r="E26" t="n">
-        <v>5206.17103428433</v>
+        <v>5197.79482878529</v>
       </c>
       <c r="F26" t="n">
-        <v>6300.40117613235</v>
+        <v>6333.8576117489</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1396.26808865226</v>
+        <v>-1700.76192699415</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>3154.59017079472</v>
+        <v>2704.33708394233</v>
       </c>
       <c r="C27" t="n">
-        <v>769.355640336457</v>
+        <v>519.769590278987</v>
       </c>
       <c r="D27" t="n">
-        <v>-409.694119576766</v>
+        <v>-678.890536440328</v>
       </c>
       <c r="E27" t="n">
-        <v>5522.66033741325</v>
+        <v>5198.66436382924</v>
       </c>
       <c r="F27" t="n">
-        <v>6813.72445411389</v>
+        <v>6388.17725766319</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-1534.40982920528</v>
+        <v>-1984.66291605767</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4860.25766951514</v>
+        <v>4484.60350881266</v>
       </c>
       <c r="C28" t="n">
-        <v>2506.3788378966</v>
+        <v>2379.1250266645</v>
       </c>
       <c r="D28" t="n">
-        <v>1162.09361338766</v>
+        <v>1144.87239476071</v>
       </c>
       <c r="E28" t="n">
-        <v>7145.11143349726</v>
+        <v>7082.21666327663</v>
       </c>
       <c r="F28" t="n">
-        <v>8767.3487293162</v>
+        <v>8303.30177305743</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-1795.74233048486</v>
+        <v>-2171.39649118734</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5865.9799494133</v>
+        <v>5081.47482107326</v>
       </c>
       <c r="C29" t="n">
-        <v>3551.26681684426</v>
+        <v>2684.47445194762</v>
       </c>
       <c r="D29" t="n">
-        <v>2062.22355654333</v>
+        <v>1410.48228289929</v>
       </c>
       <c r="E29" t="n">
-        <v>8355.1826379562</v>
+        <v>7897.19884481997</v>
       </c>
       <c r="F29" t="n">
-        <v>9524.39170880498</v>
+        <v>9140.30446835725</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-1258.0200505867</v>
+        <v>-2042.52517892674</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6680.59610590732</v>
+        <v>5811.59002038033</v>
       </c>
       <c r="C30" t="n">
-        <v>4179.86708228867</v>
+        <v>3384.15643864593</v>
       </c>
       <c r="D30" t="n">
-        <v>2690.6732262293</v>
+        <v>2073.51269910547</v>
       </c>
       <c r="E30" t="n">
-        <v>9209.27282298614</v>
+        <v>8723.51632249309</v>
       </c>
       <c r="F30" t="n">
-        <v>10680.443945663</v>
+        <v>9988.25911737735</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-2143.40389409268</v>
+        <v>-3012.40997961967</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6917.33949420054</v>
+        <v>6048.26765045081</v>
       </c>
       <c r="C31" t="n">
-        <v>4358.52318699062</v>
+        <v>3505.68264759698</v>
       </c>
       <c r="D31" t="n">
-        <v>2750.60516282654</v>
+        <v>2160.43601970043</v>
       </c>
       <c r="E31" t="n">
-        <v>9558.84698433996</v>
+        <v>8997.30974843233</v>
       </c>
       <c r="F31" t="n">
-        <v>10539.763028841</v>
+        <v>10283.3257215653</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-3025.66050579946</v>
+        <v>-3894.73234954919</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6668.8430846079</v>
+        <v>6000.56759520417</v>
       </c>
       <c r="C32" t="n">
-        <v>4089.67577339024</v>
+        <v>3509.73564827344</v>
       </c>
       <c r="D32" t="n">
-        <v>2391.77809884216</v>
+        <v>2131.34612508063</v>
       </c>
       <c r="E32" t="n">
-        <v>9235.57720347868</v>
+        <v>8738.38396451946</v>
       </c>
       <c r="F32" t="n">
-        <v>10349.1039047652</v>
+        <v>10095.8047537289</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-3014.1569153921</v>
+        <v>-3682.43240479583</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>5719.43727541006</v>
+        <v>5329.96712533906</v>
       </c>
       <c r="C33" t="n">
-        <v>3126.19651722873</v>
+        <v>2604.02844243844</v>
       </c>
       <c r="D33" t="n">
-        <v>1420.61418914692</v>
+        <v>1193.6098732331</v>
       </c>
       <c r="E33" t="n">
-        <v>8422.15266333887</v>
+        <v>7932.71664102639</v>
       </c>
       <c r="F33" t="n">
-        <v>9365.03432957686</v>
+        <v>9343.13521023173</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-2167.56272458994</v>
+        <v>-2557.03287466094</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4110.21100869581</v>
+        <v>4130.10200194362</v>
       </c>
       <c r="C34" t="n">
-        <v>1420.72395621565</v>
+        <v>1089.52914902542</v>
       </c>
       <c r="D34" t="n">
-        <v>-221.03713459578</v>
+        <v>-258.293287713975</v>
       </c>
       <c r="E34" t="n">
-        <v>6645.05551193788</v>
+        <v>6688.70185061788</v>
       </c>
       <c r="F34" t="n">
-        <v>7926.06517172248</v>
+        <v>8130.24725506544</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-1200.78899130419</v>
+        <v>-1180.89799805638</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3227.60417786158</v>
+        <v>3130.15464202779</v>
       </c>
       <c r="C35" t="n">
-        <v>229.991618377427</v>
+        <v>111.503518432598</v>
       </c>
       <c r="D35" t="n">
-        <v>-1131.42694583543</v>
+        <v>-1256.30058556758</v>
       </c>
       <c r="E35" t="n">
-        <v>5975.74039729079</v>
+        <v>5976.74278601826</v>
       </c>
       <c r="F35" t="n">
-        <v>6881.25614062543</v>
+        <v>7448.64810326818</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>692.604177861578</v>
+        <v>595.154642027789</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3521.9635879857</v>
+        <v>3153.0365174059</v>
       </c>
       <c r="C36" t="n">
-        <v>626.422489869349</v>
+        <v>354.926773711633</v>
       </c>
       <c r="D36" t="n">
-        <v>-728.7915315109</v>
+        <v>-1032.57126695774</v>
       </c>
       <c r="E36" t="n">
-        <v>6138.72830951037</v>
+        <v>6365.93948490692</v>
       </c>
       <c r="F36" t="n">
-        <v>7508.45562968253</v>
+        <v>7867.52880970969</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>952.963587985701</v>
+        <v>584.036517405905</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3646.6145588471</v>
+        <v>3215.09768807611</v>
       </c>
       <c r="C37" t="n">
-        <v>527.057155997839</v>
+        <v>392.056211914838</v>
       </c>
       <c r="D37" t="n">
-        <v>-848.751324440367</v>
+        <v>-1014.86481044956</v>
       </c>
       <c r="E37" t="n">
-        <v>6462.40222553113</v>
+        <v>6508.03695479964</v>
       </c>
       <c r="F37" t="n">
-        <v>7835.99387833647</v>
+        <v>8038.69913666613</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1826.6145588471</v>
+        <v>1395.09768807611</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>3163.00404831347</v>
+        <v>2765.40360362234</v>
       </c>
       <c r="C38" t="n">
-        <v>-178.553988548186</v>
+        <v>-163.883586479904</v>
       </c>
       <c r="D38" t="n">
-        <v>-1504.19978117841</v>
+        <v>-1589.95844745759</v>
       </c>
       <c r="E38" t="n">
-        <v>6042.56918447193</v>
+        <v>6312.99277073103</v>
       </c>
       <c r="F38" t="n">
-        <v>7330.14575366139</v>
+        <v>7924.46080465481</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>845.00404831347</v>
+        <v>447.403603622338</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>3380.561761179</v>
+        <v>2776.02021009464</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.7906393890016</v>
+        <v>21.172046653071</v>
       </c>
       <c r="D39" t="n">
-        <v>-1319.50914143697</v>
+        <v>-1653.55287264854</v>
       </c>
       <c r="E39" t="n">
-        <v>6351.18042212016</v>
+        <v>6348.43340594704</v>
       </c>
       <c r="F39" t="n">
-        <v>7693.68491661377</v>
+        <v>8023.15832524865</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2281.438238821</v>
+        <v>-2885.97978990536</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>5043.91458993327</v>
+        <v>4529.93739605294</v>
       </c>
       <c r="C40" t="n">
-        <v>1807.5447192416</v>
+        <v>1669.54752963519</v>
       </c>
       <c r="D40" t="n">
-        <v>139.791439437459</v>
+        <v>-58.9862471911192</v>
       </c>
       <c r="E40" t="n">
-        <v>8052.90596554347</v>
+        <v>8200.10359188596</v>
       </c>
       <c r="F40" t="n">
-        <v>9317.29547200691</v>
+        <v>9928.63736871227</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-1499.08541006673</v>
+        <v>-2013.06260394706</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>6076.14785145322</v>
+        <v>5122.50163458391</v>
       </c>
       <c r="C41" t="n">
-        <v>2717.58174656423</v>
+        <v>1932.26687121523</v>
       </c>
       <c r="D41" t="n">
-        <v>930.543771594815</v>
+        <v>155.407616386322</v>
       </c>
       <c r="E41" t="n">
-        <v>9152.60691139783</v>
+        <v>8645.4009354478</v>
       </c>
       <c r="F41" t="n">
-        <v>10623.6143882514</v>
+        <v>10422.2601902767</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-1600.85214854678</v>
+        <v>-2554.49836541609</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>6923.89860549483</v>
+        <v>5852.28005733128</v>
       </c>
       <c r="C42" t="n">
-        <v>3896.71267630669</v>
+        <v>2627.20829230121</v>
       </c>
       <c r="D42" t="n">
-        <v>1807.31983640654</v>
+        <v>805.434033205594</v>
       </c>
       <c r="E42" t="n">
-        <v>10183.0269442565</v>
+        <v>9510.03528202496</v>
       </c>
       <c r="F42" t="n">
-        <v>11566.4865557627</v>
+        <v>11331.8095411206</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-2143.10139450517</v>
+        <v>-3214.71994266872</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>7132.92752256652</v>
+        <v>6086.55970203487</v>
       </c>
       <c r="C43" t="n">
-        <v>3651.58260636802</v>
+        <v>2728.52604821581</v>
       </c>
       <c r="D43" t="n">
-        <v>1668.08820618607</v>
+        <v>864.111083341013</v>
       </c>
       <c r="E43" t="n">
-        <v>10229.5759107305</v>
+        <v>9772.45345920881</v>
       </c>
       <c r="F43" t="n">
-        <v>12053.6482905718</v>
+        <v>11636.8684240836</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-1193.07247743348</v>
+        <v>-2239.44029796513</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6886.36288609639</v>
+        <v>6029.00070408025</v>
       </c>
       <c r="C44" t="n">
-        <v>3621.35327727877</v>
+        <v>2678.2644354978</v>
       </c>
       <c r="D44" t="n">
-        <v>1717.95044339452</v>
+        <v>772.836734173469</v>
       </c>
       <c r="E44" t="n">
-        <v>10004.5532237471</v>
+        <v>9877.14165322343</v>
       </c>
       <c r="F44" t="n">
-        <v>11652.2597126335</v>
+        <v>11782.5693545478</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-2277.63711390361</v>
+        <v>-3134.99929591975</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>5896.51370344849</v>
+        <v>5378.54761477184</v>
       </c>
       <c r="C45" t="n">
-        <v>2310.12106615704</v>
+        <v>1789.30201331249</v>
       </c>
       <c r="D45" t="n">
-        <v>710.702397619345</v>
+        <v>-155.890878483232</v>
       </c>
       <c r="E45" t="n">
-        <v>9082.61412815551</v>
+        <v>9138.4156968689</v>
       </c>
       <c r="F45" t="n">
-        <v>10699.3087791519</v>
+        <v>11083.6085886646</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2457.48629655151</v>
+        <v>-2975.45238522816</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4343.50286371002</v>
+        <v>4258.46128089362</v>
       </c>
       <c r="C46" t="n">
-        <v>594.925295092201</v>
+        <v>395.375265266687</v>
       </c>
       <c r="D46" t="n">
-        <v>-1207.84373565273</v>
+        <v>-1588.56748973682</v>
       </c>
       <c r="E46" t="n">
-        <v>7589.41548794487</v>
+        <v>7890.88941693983</v>
       </c>
       <c r="F46" t="n">
-        <v>9282.04651307966</v>
+        <v>9874.83217194333</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1643.49713628998</v>
+        <v>-1728.53871910638</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3484.33114702258</v>
+        <v>3348.66280834746</v>
       </c>
       <c r="C47" t="n">
-        <v>-62.1433382067944</v>
+        <v>-435.00665615564</v>
       </c>
       <c r="D47" t="n">
-        <v>-1881.90594520739</v>
+        <v>-2456.83184942486</v>
       </c>
       <c r="E47" t="n">
-        <v>6875.53754700075</v>
+        <v>7203.63075419238</v>
       </c>
       <c r="F47" t="n">
-        <v>8654.94800428033</v>
+        <v>9225.4559474616</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-992.668852977422</v>
+        <v>-1128.33719165254</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3733.02897524774</v>
+        <v>3299.73262789328</v>
       </c>
       <c r="C48" t="n">
-        <v>154.234355074473</v>
+        <v>-147.695277829074</v>
       </c>
       <c r="D48" t="n">
-        <v>-1300.97331511688</v>
+        <v>-2206.63451102787</v>
       </c>
       <c r="E48" t="n">
-        <v>7063.00320678196</v>
+        <v>7631.16231317503</v>
       </c>
       <c r="F48" t="n">
-        <v>8811.58980173671</v>
+        <v>9690.10154637383</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-806.971024752263</v>
+        <v>-1240.26737210672</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3842.37487909147</v>
+        <v>3285.12433276754</v>
       </c>
       <c r="C49" t="n">
-        <v>50.6521570476047</v>
+        <v>-141.632740537472</v>
       </c>
       <c r="D49" t="n">
-        <v>-1458.70811177105</v>
+        <v>-2236.98773063273</v>
       </c>
       <c r="E49" t="n">
-        <v>7381.2992758554</v>
+        <v>7774.80685502442</v>
       </c>
       <c r="F49" t="n">
-        <v>9302.48043323068</v>
+        <v>9870.16184511968</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,10 +1952,10 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>99.3748790914674</v>
+        <v>-457.875667232458</v>
       </c>
       <c r="J49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
